--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_397__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_397__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,43 +5417,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0.03894640505313873</c:v>
+                  <c:v>0.03895386680960655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.7131770253181458</c:v>
+                  <c:v>-0.7131733298301697</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>47.43799209594727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.88028717041016</c:v>
+                  <c:v>49.88028335571289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.25582122802734</c:v>
+                  <c:v>43.25583267211914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.28213500976562</c:v>
+                  <c:v>47.28213882446289</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.1401977390050888</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2556439638137817</c:v>
+                  <c:v>0.2556346356868744</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.01092028524726629</c:v>
+                  <c:v>-0.01091842073947191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.279156923294067</c:v>
+                  <c:v>3.279153108596802</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4187675714492798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.2304801940918</c:v>
+                  <c:v>49.23047637939453</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3865475058555603</c:v>
+                  <c:v>0.3865456581115723</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.5047480463981628</c:v>
@@ -5462,7 +5462,7 @@
                   <c:v>46.660888671875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.599997043609619</c:v>
+                  <c:v>1.599995255470276</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.045664548873901</c:v>
@@ -5477,10 +5477,10 @@
                   <c:v>15.03176593780518</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.74021148681641</c:v>
+                  <c:v>36.74021530151367</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2215255200862885</c:v>
+                  <c:v>0.2215273827314377</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>47.00649642944336</c:v>
@@ -5489,34 +5489,34 @@
                   <c:v>0.2000336647033691</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4804869592189789</c:v>
+                  <c:v>0.4804888367652893</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.804739356040955</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3316327929496765</c:v>
+                  <c:v>0.3316383957862854</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>48.26594543457031</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.231903150677681</c:v>
+                  <c:v>0.2319068759679794</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>55.43632888793945</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.05823779106140137</c:v>
+                  <c:v>0.05823219567537308</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.03249978274106979</c:v>
+                  <c:v>-0.03250537812709808</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.3992244303226471</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4646249413490295</c:v>
+                  <c:v>0.4646230936050415</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.5489475727081299</c:v>
@@ -5525,7 +5525,7 @@
                   <c:v>51.23421096801758</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1397837549448013</c:v>
+                  <c:v>0.1397912204265594</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>42.77333450317383</c:v>
@@ -5534,10 +5534,10 @@
                   <c:v>51.23060989379883</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.2274313569068909</c:v>
+                  <c:v>-0.2274332195520401</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.5149040222168</c:v>
+                  <c:v>24.51490592956543</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.08092125505208969</c:v>
@@ -5546,13 +5546,13 @@
                   <c:v>0.2970966398715973</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3022640347480774</c:v>
+                  <c:v>0.3022714853286743</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.08941356837749481</c:v>
+                  <c:v>0.08940983563661575</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3074780106544495</c:v>
+                  <c:v>0.3074854612350464</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1.805475950241089</c:v>
@@ -5561,13 +5561,13 @@
                   <c:v>0.0893632173538208</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.30788040161133</c:v>
+                  <c:v>48.3078727722168</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.2678379118442535</c:v>
+                  <c:v>-0.26784348487854</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1125110164284706</c:v>
+                  <c:v>0.1125147417187691</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.3889046311378479</c:v>
@@ -5576,31 +5576,31 @@
                   <c:v>-0.3590994775295258</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1558005511760712</c:v>
+                  <c:v>0.155793085694313</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.2052364647388458</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.383762836456299</c:v>
+                  <c:v>6.383759021759033</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.1802872717380524</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1723898351192474</c:v>
+                  <c:v>0.1723879724740982</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.6424823999404907</c:v>
+                  <c:v>0.6424786448478699</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-0.01745641976594925</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.01442424952983856</c:v>
+                  <c:v>0.0144205205142498</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.202530637383461</c:v>
+                  <c:v>0.2025287747383118</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.4130500853061676</c:v>
@@ -5609,10 +5609,10 @@
                   <c:v>0.1703851670026779</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.03259116038680077</c:v>
+                  <c:v>-0.03259302303195</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.1859674602746964</c:v>
+                  <c:v>-0.1859711855649948</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.08402801305055618</c:v>
@@ -5621,7 +5621,7 @@
                   <c:v>48.48043060302734</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.08021263033151627</c:v>
+                  <c:v>0.0802144929766655</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.221781000494957</c:v>
@@ -5630,7 +5630,7 @@
                   <c:v>0.2518192529678345</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.08571565896272659</c:v>
+                  <c:v>0.08571752905845642</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.6453914642333984</c:v>
@@ -5639,34 +5639,34 @@
                   <c:v>48.02284240722656</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45.47010040283203</c:v>
+                  <c:v>45.47009658813477</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.07181542366743088</c:v>
+                  <c:v>0.07182101905345917</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>34.14226913452148</c:v>
+                  <c:v>34.14227294921875</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.135953903198242</c:v>
+                  <c:v>1.13594651222229</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.137355774641037</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1919963657855988</c:v>
+                  <c:v>0.1920000910758972</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.143172100186348</c:v>
+                  <c:v>0.1431739628314972</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.8363211750984192</c:v>
+                  <c:v>0.8363193273544312</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.5560953617095947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.3179656565189362</c:v>
+                  <c:v>0.3179693818092346</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.1054993569850922</c:v>
@@ -5675,16 +5675,16 @@
                   <c:v>44.33591842651367</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1362797915935516</c:v>
+                  <c:v>0.1362760663032532</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.3048878014087677</c:v>
+                  <c:v>-0.3048859238624573</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.348684549331665</c:v>
+                  <c:v>0.348682701587677</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.4386874139308929</c:v>
+                  <c:v>0.4386855363845825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.03894640505313873</v>
+        <v>0.03895386680960655</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.7131770253181458</v>
+        <v>-0.7131733298301697</v>
       </c>
       <c r="G3">
         <v>80</v>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>49.88028717041016</v>
+        <v>49.88028335571289</v>
       </c>
       <c r="G5">
         <v>80</v>
@@ -6507,7 +6507,7 @@
         <v>45.684</v>
       </c>
       <c r="F6">
-        <v>43.25582122802734</v>
+        <v>43.25583267211914</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>47.28213500976562</v>
+        <v>47.28213882446289</v>
       </c>
       <c r="G7">
         <v>80</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2556439638137817</v>
+        <v>0.2556346356868744</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.01092028524726629</v>
+        <v>-0.01091842073947191</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.279156923294067</v>
+        <v>3.279153108596802</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>49.2304801940918</v>
+        <v>49.23047637939453</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3865475058555603</v>
+        <v>0.3865456581115723</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>1.599997043609619</v>
+        <v>1.599995255470276</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>36.74021148681641</v>
+        <v>36.74021530151367</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2215255200862885</v>
+        <v>0.2215273827314377</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.4804869592189789</v>
+        <v>0.4804888367652893</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.3316327929496765</v>
+        <v>0.3316383957862854</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.231903150677681</v>
+        <v>0.2319068759679794</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.05823779106140137</v>
+        <v>0.05823219567537308</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-0.03249978274106979</v>
+        <v>-0.03250537812709808</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.4646249413490295</v>
+        <v>0.4646230936050415</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.1397837549448013</v>
+        <v>0.1397912204265594</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.2274313569068909</v>
+        <v>-0.2274332195520401</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>24.5149040222168</v>
+        <v>24.51490592956543</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.3022640347480774</v>
+        <v>0.3022714853286743</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.08941356837749481</v>
+        <v>0.08940983563661575</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.3074780106544495</v>
+        <v>0.3074854612350464</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>48.30788040161133</v>
+        <v>48.3078727722168</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.2678379118442535</v>
+        <v>-0.26784348487854</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.1125110164284706</v>
+        <v>0.1125147417187691</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.1558005511760712</v>
+        <v>0.155793085694313</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>6.383762836456299</v>
+        <v>6.383759021759033</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.1723898351192474</v>
+        <v>0.1723879724740982</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.6424823999404907</v>
+        <v>0.6424786448478699</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.01442424952983856</v>
+        <v>0.0144205205142498</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.202530637383461</v>
+        <v>0.2025287747383118</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-0.03259116038680077</v>
+        <v>-0.03259302303195</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.1859674602746964</v>
+        <v>-0.1859711855649948</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.08021263033151627</v>
+        <v>0.0802144929766655</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.08571565896272659</v>
+        <v>0.08571752905845642</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>45.47010040283203</v>
+        <v>45.47009658813477</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.07181542366743088</v>
+        <v>0.07182101905345917</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>34.14226913452148</v>
+        <v>34.14227294921875</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.135953903198242</v>
+        <v>1.13594651222229</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.1919963657855988</v>
+        <v>0.1920000910758972</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.143172100186348</v>
+        <v>0.1431739628314972</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.8363211750984192</v>
+        <v>0.8363193273544312</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.3179656565189362</v>
+        <v>0.3179693818092346</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.1362797915935516</v>
+        <v>0.1362760663032532</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.3048878014087677</v>
+        <v>-0.3048859238624573</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.348684549331665</v>
+        <v>0.348682701587677</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.4386874139308929</v>
+        <v>0.4386855363845825</v>
       </c>
     </row>
     <row r="92" spans="1:6">
